--- a/HK2_2022_23_Weekly_Syllabus.xlsx
+++ b/HK2_2022_23_Weekly_Syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Teaching-VNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5ED642-10EF-4259-9875-D34319AC920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1993F6-CFE5-4CB3-9094-F5C33B6FE086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9CFA92B3-BF91-4321-90A0-3E631CD0B82C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9CFA92B3-BF91-4321-90A0-3E631CD0B82C}"/>
   </bookViews>
   <sheets>
     <sheet name="MAT1192" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,75 @@
   </si>
   <si>
     <t>MAT3363. Seminar 1 (CNKHTN)</t>
+  </si>
+  <si>
+    <t>Lecture 1 - LATEX</t>
+  </si>
+  <si>
+    <t>What Youtube about Latex. Practice at home.</t>
+  </si>
+  <si>
+    <t>Lecture 2 - LATEX</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TikZ</t>
+  </si>
+  <si>
+    <t>Lecture 3 - MATLAB</t>
+  </si>
+  <si>
+    <t>Basic of MATLAB</t>
+  </si>
+  <si>
+    <t>Lecture 5 - MATLAB ODEs</t>
+  </si>
+  <si>
+    <t>Lecture 10</t>
+  </si>
+  <si>
+    <t>Lecture 11</t>
+  </si>
+  <si>
+    <t>Basic methods for IVPs for ODEs</t>
+  </si>
+  <si>
+    <t>Lecture 6 - Matlab ODEs</t>
+  </si>
+  <si>
+    <t>Bài toán biên ODEs</t>
+  </si>
+  <si>
+    <t>Lecture 7 - MATLAB PDEs</t>
+  </si>
+  <si>
+    <t>Giải PDEs với MATLAB</t>
+  </si>
+  <si>
+    <t>Lecture 9 - Simulink 1</t>
+  </si>
+  <si>
+    <t>Lecture 12 - Simulink 4</t>
+  </si>
+  <si>
+    <t>Lecture 8 - Bài giữa kỳ</t>
+  </si>
+  <si>
+    <t>Latex + ODEs giấy + ODEs/PDEs lập trình</t>
+  </si>
+  <si>
+    <t>Lecture 4 - MATLAB ODEs</t>
+  </si>
+  <si>
+    <t>Simulation of control systems</t>
+  </si>
+  <si>
+    <t>Lecture 13 - Review</t>
+  </si>
+  <si>
+    <t>Giới hạn thi</t>
   </si>
 </sst>
 </file>
@@ -133,9 +202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +216,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,12 +249,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,30 +577,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>44965</v>
       </c>
       <c r="D3" t="s">
@@ -536,7 +611,7 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>44972</v>
       </c>
       <c r="D4" t="s">
@@ -544,15 +619,15 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>44979</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>44986</v>
       </c>
       <c r="D6" t="s">
@@ -563,10 +638,10 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>44993</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
@@ -574,7 +649,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>45000</v>
       </c>
       <c r="D8" t="s">
@@ -585,10 +660,10 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>45007</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
@@ -596,7 +671,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>45014</v>
       </c>
       <c r="D10" t="s">
@@ -607,18 +682,18 @@
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>45021</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>45028</v>
       </c>
       <c r="D12" t="s">
@@ -629,10 +704,10 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>45035</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
@@ -640,7 +715,7 @@
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>45042</v>
       </c>
       <c r="D14" t="s">
@@ -651,10 +726,10 @@
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>45049</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
@@ -662,7 +737,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>45056</v>
       </c>
       <c r="D16" t="s">
@@ -673,10 +748,10 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>45063</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
@@ -684,7 +759,7 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>45070</v>
       </c>
       <c r="D18" t="s">
@@ -704,111 +779,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C54B86-A266-475E-B688-38CFD4FEA9B3}">
-  <dimension ref="C2:E17"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
     <col min="5" max="5" width="63.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>44966</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>44973</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>44980</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
         <v>44987</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
         <v>44994</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
         <v>45001</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
         <v>45008</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
         <v>45015</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
         <v>45022</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
         <v>45029</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
         <v>45036</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
         <v>45043</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
         <v>45050</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="2">
-        <v>45057</v>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -817,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82481A94-F731-47B3-A1F2-67F7D1B1FEFA}">
   <dimension ref="C2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -829,90 +1008,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>44966</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>44973</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>44980</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>44987</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>44994</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>45001</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>45008</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>45015</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>45022</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>45029</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>45036</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>45043</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>45050</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>45057</v>
       </c>
     </row>
